--- a/natmiOut/OldD4/LR-pairs_lrc2p/Gdf11-Acvr1b.xlsx
+++ b/natmiOut/OldD4/LR-pairs_lrc2p/Gdf11-Acvr1b.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="100" uniqueCount="27">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -82,6 +82,9 @@
     <t>FAPs</t>
   </si>
   <si>
+    <t>M2</t>
+  </si>
+  <si>
     <t>sCs</t>
   </si>
   <si>
@@ -92,9 +95,6 @@
   </si>
   <si>
     <t>M1</t>
-  </si>
-  <si>
-    <t>M2</t>
   </si>
 </sst>
 </file>
@@ -452,7 +452,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T16"/>
+  <dimension ref="A1:T21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -525,61 +525,61 @@
         <v>20</v>
       </c>
       <c r="B2" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D2" t="s">
         <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>1.48112763336477</v>
+        <v>1.614468333333333</v>
       </c>
       <c r="H2">
-        <v>1.48112763336477</v>
+        <v>4.843405</v>
       </c>
       <c r="I2">
-        <v>0.2139865259507539</v>
+        <v>0.2189358375003605</v>
       </c>
       <c r="J2">
-        <v>0.2139865259507539</v>
+        <v>0.2564101138793464</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>2.81616467224719</v>
+        <v>3.187172</v>
       </c>
       <c r="N2">
-        <v>2.81616467224719</v>
+        <v>9.561516000000001</v>
       </c>
       <c r="O2">
-        <v>0.1273652677638085</v>
+        <v>0.1363537060697748</v>
       </c>
       <c r="P2">
-        <v>0.1273652677638085</v>
+        <v>0.141928285537828</v>
       </c>
       <c r="Q2">
-        <v>4.171099316170954</v>
+        <v>5.145588266886667</v>
       </c>
       <c r="R2">
-        <v>4.171099316170954</v>
+        <v>46.31029440198</v>
       </c>
       <c r="S2">
-        <v>0.02725445117556493</v>
+        <v>0.02985271283466412</v>
       </c>
       <c r="T2">
-        <v>0.02725445117556493</v>
+        <v>0.03639184785745488</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -587,61 +587,61 @@
         <v>20</v>
       </c>
       <c r="B3" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C3" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D3" t="s">
         <v>21</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>1.48112763336477</v>
+        <v>1.614468333333333</v>
       </c>
       <c r="H3">
-        <v>1.48112763336477</v>
+        <v>4.843405</v>
       </c>
       <c r="I3">
-        <v>0.2139865259507539</v>
+        <v>0.2189358375003605</v>
       </c>
       <c r="J3">
-        <v>0.2139865259507539</v>
+        <v>0.2564101138793464</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>7.57953860856126</v>
+        <v>8.001835333333334</v>
       </c>
       <c r="N3">
-        <v>7.57953860856126</v>
+        <v>24.005506</v>
       </c>
       <c r="O3">
-        <v>0.3427959926914366</v>
+        <v>0.3423348043532233</v>
       </c>
       <c r="P3">
-        <v>0.3427959926914366</v>
+        <v>0.3563305557453487</v>
       </c>
       <c r="Q3">
-        <v>11.22626408129524</v>
+        <v>12.91870975421444</v>
       </c>
       <c r="R3">
-        <v>11.22626408129524</v>
+        <v>116.26838778793</v>
       </c>
       <c r="S3">
-        <v>0.07335372358588052</v>
+        <v>0.074949357096595</v>
       </c>
       <c r="T3">
-        <v>0.07335372358588052</v>
+        <v>0.09136675837735567</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -649,61 +649,61 @@
         <v>20</v>
       </c>
       <c r="B4" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C4" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D4" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4">
-        <v>1.48112763336477</v>
+        <v>1.614468333333333</v>
       </c>
       <c r="H4">
-        <v>1.48112763336477</v>
+        <v>4.843405</v>
       </c>
       <c r="I4">
-        <v>0.2139865259507539</v>
+        <v>0.2189358375003605</v>
       </c>
       <c r="J4">
-        <v>0.2139865259507539</v>
+        <v>0.2564101138793464</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L4">
         <v>1</v>
       </c>
       <c r="M4">
-        <v>3.71609596810006</v>
+        <v>4.084306000000001</v>
       </c>
       <c r="N4">
-        <v>3.71609596810006</v>
+        <v>12.252918</v>
       </c>
       <c r="O4">
-        <v>0.1680660093059818</v>
+        <v>0.1747349248245835</v>
       </c>
       <c r="P4">
-        <v>0.1680660093059818</v>
+        <v>0.1818786523575961</v>
       </c>
       <c r="Q4">
-        <v>5.504012426588406</v>
+        <v>6.593982700643334</v>
       </c>
       <c r="R4">
-        <v>5.504012426588406</v>
+        <v>59.34584430579</v>
       </c>
       <c r="S4">
-        <v>0.03596386146179412</v>
+        <v>0.03825573710703272</v>
       </c>
       <c r="T4">
-        <v>0.03596386146179412</v>
+        <v>0.04663552596323327</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -711,61 +711,61 @@
         <v>20</v>
       </c>
       <c r="B5" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C5" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D5" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F5">
         <v>1</v>
       </c>
       <c r="G5">
-        <v>1.48112763336477</v>
+        <v>1.614468333333333</v>
       </c>
       <c r="H5">
-        <v>1.48112763336477</v>
+        <v>4.843405</v>
       </c>
       <c r="I5">
-        <v>0.2139865259507539</v>
+        <v>0.2189358375003605</v>
       </c>
       <c r="J5">
-        <v>0.2139865259507539</v>
+        <v>0.2564101138793464</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L5">
         <v>1</v>
       </c>
       <c r="M5">
-        <v>5.24631863169792</v>
+        <v>5.346736</v>
       </c>
       <c r="N5">
-        <v>5.24631863169792</v>
+        <v>16.040208</v>
       </c>
       <c r="O5">
-        <v>0.237272622544216</v>
+        <v>0.2287442500676723</v>
       </c>
       <c r="P5">
-        <v>0.237272622544216</v>
+        <v>0.2380960530851126</v>
       </c>
       <c r="Q5">
-        <v>7.770467498844239</v>
+        <v>8.632135958693333</v>
       </c>
       <c r="R5">
-        <v>7.770467498844239</v>
+        <v>77.68922362824</v>
       </c>
       <c r="S5">
-        <v>0.0507731442014613</v>
+        <v>0.05008031396195772</v>
       </c>
       <c r="T5">
-        <v>0.0507731442014613</v>
+        <v>0.06105023608577663</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -773,61 +773,61 @@
         <v>20</v>
       </c>
       <c r="B6" t="s">
+        <v>24</v>
+      </c>
+      <c r="C6" t="s">
+        <v>25</v>
+      </c>
+      <c r="D6" t="s">
         <v>23</v>
       </c>
-      <c r="C6" t="s">
-        <v>24</v>
-      </c>
-      <c r="D6" t="s">
-        <v>22</v>
-      </c>
       <c r="E6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6">
-        <v>1.48112763336477</v>
+        <v>1.614468333333333</v>
       </c>
       <c r="H6">
-        <v>1.48112763336477</v>
+        <v>4.843405</v>
       </c>
       <c r="I6">
-        <v>0.2139865259507539</v>
+        <v>0.2189358375003605</v>
       </c>
       <c r="J6">
-        <v>0.2139865259507539</v>
+        <v>0.2564101138793464</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L6">
         <v>1</v>
       </c>
       <c r="M6">
-        <v>2.75281331509131</v>
+        <v>2.7542475</v>
       </c>
       <c r="N6">
-        <v>2.75281331509131</v>
+        <v>5.508495</v>
       </c>
       <c r="O6">
-        <v>0.1245001076945571</v>
+        <v>0.1178323146847462</v>
       </c>
       <c r="P6">
-        <v>0.1245001076945571</v>
+        <v>0.08176645327411448</v>
       </c>
       <c r="Q6">
-        <v>4.077267870476219</v>
+        <v>4.446645370912499</v>
       </c>
       <c r="R6">
-        <v>4.077267870476219</v>
+        <v>26.679872225475</v>
       </c>
       <c r="S6">
-        <v>0.02664134552605299</v>
+        <v>0.02579771650011093</v>
       </c>
       <c r="T6">
-        <v>0.02664134552605299</v>
+        <v>0.02096574559552595</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -835,61 +835,61 @@
         <v>21</v>
       </c>
       <c r="B7" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C7" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D7" t="s">
         <v>20</v>
       </c>
       <c r="E7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F7">
         <v>1</v>
       </c>
       <c r="G7">
-        <v>2.21617985788098</v>
+        <v>2.338584333333333</v>
       </c>
       <c r="H7">
-        <v>2.21617985788098</v>
+        <v>7.015753</v>
       </c>
       <c r="I7">
-        <v>0.3201834993738132</v>
+        <v>0.3171322156108495</v>
       </c>
       <c r="J7">
-        <v>0.3201834993738132</v>
+        <v>0.37141433055451</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L7">
         <v>1</v>
       </c>
       <c r="M7">
-        <v>2.81616467224719</v>
+        <v>3.187172</v>
       </c>
       <c r="N7">
-        <v>2.81616467224719</v>
+        <v>9.561516000000001</v>
       </c>
       <c r="O7">
-        <v>0.1273652677638085</v>
+        <v>0.1363537060697748</v>
       </c>
       <c r="P7">
-        <v>0.1273652677638085</v>
+        <v>0.141928285537828</v>
       </c>
       <c r="Q7">
-        <v>6.241127423110214</v>
+        <v>7.453470506838667</v>
       </c>
       <c r="R7">
-        <v>6.241127423110214</v>
+        <v>67.081234561548</v>
       </c>
       <c r="S7">
-        <v>0.04078025713129894</v>
+        <v>0.04324215291265821</v>
       </c>
       <c r="T7">
-        <v>0.04078025713129894</v>
+        <v>0.05271419915978175</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -897,61 +897,61 @@
         <v>21</v>
       </c>
       <c r="B8" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C8" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D8" t="s">
         <v>21</v>
       </c>
       <c r="E8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F8">
         <v>1</v>
       </c>
       <c r="G8">
-        <v>2.21617985788098</v>
+        <v>2.338584333333333</v>
       </c>
       <c r="H8">
-        <v>2.21617985788098</v>
+        <v>7.015753</v>
       </c>
       <c r="I8">
-        <v>0.3201834993738132</v>
+        <v>0.3171322156108495</v>
       </c>
       <c r="J8">
-        <v>0.3201834993738132</v>
+        <v>0.37141433055451</v>
       </c>
       <c r="K8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L8">
         <v>1</v>
       </c>
       <c r="M8">
-        <v>7.57953860856126</v>
+        <v>8.001835333333334</v>
       </c>
       <c r="N8">
-        <v>7.57953860856126</v>
+        <v>24.005506</v>
       </c>
       <c r="O8">
-        <v>0.3427959926914366</v>
+        <v>0.3423348043532233</v>
       </c>
       <c r="P8">
-        <v>0.3427959926914366</v>
+        <v>0.3563305557453487</v>
       </c>
       <c r="Q8">
-        <v>16.79762079632469</v>
+        <v>18.71296674844645</v>
       </c>
       <c r="R8">
-        <v>16.79762079632469</v>
+        <v>168.416700736018</v>
       </c>
       <c r="S8">
-        <v>0.1097576205112643</v>
+        <v>0.1085653949852444</v>
       </c>
       <c r="T8">
-        <v>0.1097576205112643</v>
+        <v>0.1323462748182752</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -959,61 +959,61 @@
         <v>21</v>
       </c>
       <c r="B9" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C9" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D9" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="E9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F9">
         <v>1</v>
       </c>
       <c r="G9">
-        <v>2.21617985788098</v>
+        <v>2.338584333333333</v>
       </c>
       <c r="H9">
-        <v>2.21617985788098</v>
+        <v>7.015753</v>
       </c>
       <c r="I9">
-        <v>0.3201834993738132</v>
+        <v>0.3171322156108495</v>
       </c>
       <c r="J9">
-        <v>0.3201834993738132</v>
+        <v>0.37141433055451</v>
       </c>
       <c r="K9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L9">
         <v>1</v>
       </c>
       <c r="M9">
-        <v>3.71609596810006</v>
+        <v>4.084306000000001</v>
       </c>
       <c r="N9">
-        <v>3.71609596810006</v>
+        <v>12.252918</v>
       </c>
       <c r="O9">
-        <v>0.1680660093059818</v>
+        <v>0.1747349248245835</v>
       </c>
       <c r="P9">
-        <v>0.1680660093059818</v>
+        <v>0.1818786523575961</v>
       </c>
       <c r="Q9">
-        <v>8.235537034456073</v>
+        <v>9.551494024139336</v>
       </c>
       <c r="R9">
-        <v>8.235537034456073</v>
+        <v>85.963446217254</v>
       </c>
       <c r="S9">
-        <v>0.05381196298538111</v>
+        <v>0.05541407385421541</v>
       </c>
       <c r="T9">
-        <v>0.05381196298538111</v>
+        <v>0.06755233790755301</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1021,61 +1021,61 @@
         <v>21</v>
       </c>
       <c r="B10" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C10" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D10" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="E10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F10">
         <v>1</v>
       </c>
       <c r="G10">
-        <v>2.21617985788098</v>
+        <v>2.338584333333333</v>
       </c>
       <c r="H10">
-        <v>2.21617985788098</v>
+        <v>7.015753</v>
       </c>
       <c r="I10">
-        <v>0.3201834993738132</v>
+        <v>0.3171322156108495</v>
       </c>
       <c r="J10">
-        <v>0.3201834993738132</v>
+        <v>0.37141433055451</v>
       </c>
       <c r="K10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L10">
         <v>1</v>
       </c>
       <c r="M10">
-        <v>5.24631863169792</v>
+        <v>5.346736</v>
       </c>
       <c r="N10">
-        <v>5.24631863169792</v>
+        <v>16.040208</v>
       </c>
       <c r="O10">
-        <v>0.237272622544216</v>
+        <v>0.2287442500676723</v>
       </c>
       <c r="P10">
-        <v>0.237272622544216</v>
+        <v>0.2380960530851126</v>
       </c>
       <c r="Q10">
-        <v>11.62678567959463</v>
+        <v>12.50379304406933</v>
       </c>
       <c r="R10">
-        <v>11.62678567959463</v>
+        <v>112.534137396624</v>
       </c>
       <c r="S10">
-        <v>0.07597077859180899</v>
+        <v>0.07254217083220313</v>
       </c>
       <c r="T10">
-        <v>0.07597077859180899</v>
+        <v>0.08843228616427817</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1083,61 +1083,61 @@
         <v>21</v>
       </c>
       <c r="B11" t="s">
+        <v>24</v>
+      </c>
+      <c r="C11" t="s">
+        <v>25</v>
+      </c>
+      <c r="D11" t="s">
         <v>23</v>
       </c>
-      <c r="C11" t="s">
-        <v>24</v>
-      </c>
-      <c r="D11" t="s">
-        <v>22</v>
-      </c>
       <c r="E11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F11">
         <v>1</v>
       </c>
       <c r="G11">
-        <v>2.21617985788098</v>
+        <v>2.338584333333333</v>
       </c>
       <c r="H11">
-        <v>2.21617985788098</v>
+        <v>7.015753</v>
       </c>
       <c r="I11">
-        <v>0.3201834993738132</v>
+        <v>0.3171322156108495</v>
       </c>
       <c r="J11">
-        <v>0.3201834993738132</v>
+        <v>0.37141433055451</v>
       </c>
       <c r="K11">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L11">
         <v>1</v>
       </c>
       <c r="M11">
-        <v>2.75281331509131</v>
+        <v>2.7542475</v>
       </c>
       <c r="N11">
-        <v>2.75281331509131</v>
+        <v>5.508495</v>
       </c>
       <c r="O11">
-        <v>0.1245001076945571</v>
+        <v>0.1178323146847462</v>
       </c>
       <c r="P11">
-        <v>0.1245001076945571</v>
+        <v>0.08176645327411448</v>
       </c>
       <c r="Q11">
-        <v>6.100729421411929</v>
+        <v>6.4410400536225</v>
       </c>
       <c r="R11">
-        <v>6.100729421411929</v>
+        <v>38.646240321735</v>
       </c>
       <c r="S11">
-        <v>0.03986288015405989</v>
+        <v>0.03736842302652841</v>
       </c>
       <c r="T11">
-        <v>0.03986288015405989</v>
+        <v>0.03036923250462185</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1145,61 +1145,61 @@
         <v>22</v>
       </c>
       <c r="B12" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C12" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D12" t="s">
         <v>20</v>
       </c>
       <c r="E12">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F12">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G12">
-        <v>3.22428547720887</v>
+        <v>0.1879133333333333</v>
       </c>
       <c r="H12">
-        <v>3.22428547720887</v>
+        <v>0.56374</v>
       </c>
       <c r="I12">
-        <v>0.4658299746754329</v>
+        <v>0.0254826695336139</v>
       </c>
       <c r="J12">
-        <v>0.4658299746754329</v>
+        <v>0.02984442506838532</v>
       </c>
       <c r="K12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L12">
         <v>1</v>
       </c>
       <c r="M12">
-        <v>2.81616467224719</v>
+        <v>3.187172</v>
       </c>
       <c r="N12">
-        <v>2.81616467224719</v>
+        <v>9.561516000000001</v>
       </c>
       <c r="O12">
-        <v>0.1273652677638085</v>
+        <v>0.1363537060697748</v>
       </c>
       <c r="P12">
-        <v>0.1273652677638085</v>
+        <v>0.141928285537828</v>
       </c>
       <c r="Q12">
-        <v>9.080118854155291</v>
+        <v>0.5989121144266668</v>
       </c>
       <c r="R12">
-        <v>9.080118854155291</v>
+        <v>5.390209029840001</v>
       </c>
       <c r="S12">
-        <v>0.05933055945694465</v>
+        <v>0.003474656431459594</v>
       </c>
       <c r="T12">
-        <v>0.05933055945694465</v>
+        <v>0.004235768082818105</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1207,61 +1207,61 @@
         <v>22</v>
       </c>
       <c r="B13" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C13" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D13" t="s">
         <v>21</v>
       </c>
       <c r="E13">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F13">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G13">
-        <v>3.22428547720887</v>
+        <v>0.1879133333333333</v>
       </c>
       <c r="H13">
-        <v>3.22428547720887</v>
+        <v>0.56374</v>
       </c>
       <c r="I13">
-        <v>0.4658299746754329</v>
+        <v>0.0254826695336139</v>
       </c>
       <c r="J13">
-        <v>0.4658299746754329</v>
+        <v>0.02984442506838532</v>
       </c>
       <c r="K13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L13">
         <v>1</v>
       </c>
       <c r="M13">
-        <v>7.57953860856126</v>
+        <v>8.001835333333334</v>
       </c>
       <c r="N13">
-        <v>7.57953860856126</v>
+        <v>24.005506</v>
       </c>
       <c r="O13">
-        <v>0.3427959926914366</v>
+        <v>0.3423348043532233</v>
       </c>
       <c r="P13">
-        <v>0.3427959926914366</v>
+        <v>0.3563305557453487</v>
       </c>
       <c r="Q13">
-        <v>24.438596259528</v>
+        <v>1.503651550271111</v>
       </c>
       <c r="R13">
-        <v>24.438596259528</v>
+        <v>13.53286395244</v>
       </c>
       <c r="S13">
-        <v>0.1596846485942918</v>
+        <v>0.008723604689187559</v>
       </c>
       <c r="T13">
-        <v>0.1596846485942918</v>
+        <v>0.01063448057051816</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1269,61 +1269,61 @@
         <v>22</v>
       </c>
       <c r="B14" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C14" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D14" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="E14">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F14">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G14">
-        <v>3.22428547720887</v>
+        <v>0.1879133333333333</v>
       </c>
       <c r="H14">
-        <v>3.22428547720887</v>
+        <v>0.56374</v>
       </c>
       <c r="I14">
-        <v>0.4658299746754329</v>
+        <v>0.0254826695336139</v>
       </c>
       <c r="J14">
-        <v>0.4658299746754329</v>
+        <v>0.02984442506838532</v>
       </c>
       <c r="K14">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L14">
         <v>1</v>
       </c>
       <c r="M14">
-        <v>3.71609596810006</v>
+        <v>4.084306000000001</v>
       </c>
       <c r="N14">
-        <v>3.71609596810006</v>
+        <v>12.252918</v>
       </c>
       <c r="O14">
-        <v>0.1680660093059818</v>
+        <v>0.1747349248245835</v>
       </c>
       <c r="P14">
-        <v>0.1680660093059818</v>
+        <v>0.1818786523575961</v>
       </c>
       <c r="Q14">
-        <v>11.98175426185946</v>
+        <v>0.7674955548133335</v>
       </c>
       <c r="R14">
-        <v>11.98175426185946</v>
+        <v>6.907459993320001</v>
       </c>
       <c r="S14">
-        <v>0.07829018485880655</v>
+        <v>0.00445271234528573</v>
       </c>
       <c r="T14">
-        <v>0.07829018485880655</v>
+        <v>0.005428063811825179</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1331,61 +1331,61 @@
         <v>22</v>
       </c>
       <c r="B15" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C15" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D15" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="E15">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F15">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G15">
-        <v>3.22428547720887</v>
+        <v>0.1879133333333333</v>
       </c>
       <c r="H15">
-        <v>3.22428547720887</v>
+        <v>0.56374</v>
       </c>
       <c r="I15">
-        <v>0.4658299746754329</v>
+        <v>0.0254826695336139</v>
       </c>
       <c r="J15">
-        <v>0.4658299746754329</v>
+        <v>0.02984442506838532</v>
       </c>
       <c r="K15">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L15">
         <v>1</v>
       </c>
       <c r="M15">
-        <v>5.24631863169792</v>
+        <v>5.346736</v>
       </c>
       <c r="N15">
-        <v>5.24631863169792</v>
+        <v>16.040208</v>
       </c>
       <c r="O15">
-        <v>0.237272622544216</v>
+        <v>0.2287442500676723</v>
       </c>
       <c r="P15">
-        <v>0.237272622544216</v>
+        <v>0.2380960530851126</v>
       </c>
       <c r="Q15">
-        <v>16.91562897299391</v>
+        <v>1.004722984213333</v>
       </c>
       <c r="R15">
-        <v>16.91562897299391</v>
+        <v>9.042506857919999</v>
       </c>
       <c r="S15">
-        <v>0.1105286997509457</v>
+        <v>0.005829014132188831</v>
       </c>
       <c r="T15">
-        <v>0.1105286997509457</v>
+        <v>0.007105839815376935</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1393,61 +1393,371 @@
         <v>22</v>
       </c>
       <c r="B16" t="s">
+        <v>24</v>
+      </c>
+      <c r="C16" t="s">
+        <v>25</v>
+      </c>
+      <c r="D16" t="s">
         <v>23</v>
       </c>
-      <c r="C16" t="s">
-        <v>24</v>
-      </c>
-      <c r="D16" t="s">
+      <c r="E16">
+        <v>2</v>
+      </c>
+      <c r="F16">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G16">
+        <v>0.1879133333333333</v>
+      </c>
+      <c r="H16">
+        <v>0.56374</v>
+      </c>
+      <c r="I16">
+        <v>0.0254826695336139</v>
+      </c>
+      <c r="J16">
+        <v>0.02984442506838532</v>
+      </c>
+      <c r="K16">
+        <v>2</v>
+      </c>
+      <c r="L16">
+        <v>1</v>
+      </c>
+      <c r="M16">
+        <v>2.7542475</v>
+      </c>
+      <c r="N16">
+        <v>5.508495</v>
+      </c>
+      <c r="O16">
+        <v>0.1178323146847462</v>
+      </c>
+      <c r="P16">
+        <v>0.08176645327411448</v>
+      </c>
+      <c r="Q16">
+        <v>0.51755982855</v>
+      </c>
+      <c r="R16">
+        <v>3.1053589713</v>
+      </c>
+      <c r="S16">
+        <v>0.003002681935492188</v>
+      </c>
+      <c r="T16">
+        <v>0.002440272787846939</v>
+      </c>
+    </row>
+    <row r="17" spans="1:20">
+      <c r="A17" t="s">
+        <v>23</v>
+      </c>
+      <c r="B17" t="s">
+        <v>24</v>
+      </c>
+      <c r="C17" t="s">
+        <v>25</v>
+      </c>
+      <c r="D17" t="s">
+        <v>20</v>
+      </c>
+      <c r="E17">
+        <v>2</v>
+      </c>
+      <c r="F17">
+        <v>1</v>
+      </c>
+      <c r="G17">
+        <v>3.233196</v>
+      </c>
+      <c r="H17">
+        <v>6.466392</v>
+      </c>
+      <c r="I17">
+        <v>0.4384492773551761</v>
+      </c>
+      <c r="J17">
+        <v>0.3423311304977583</v>
+      </c>
+      <c r="K17">
+        <v>3</v>
+      </c>
+      <c r="L17">
+        <v>1</v>
+      </c>
+      <c r="M17">
+        <v>3.187172</v>
+      </c>
+      <c r="N17">
+        <v>9.561516000000001</v>
+      </c>
+      <c r="O17">
+        <v>0.1363537060697748</v>
+      </c>
+      <c r="P17">
+        <v>0.141928285537828</v>
+      </c>
+      <c r="Q17">
+        <v>10.304751761712</v>
+      </c>
+      <c r="R17">
+        <v>61.82851057027201</v>
+      </c>
+      <c r="S17">
+        <v>0.05978418389099283</v>
+      </c>
+      <c r="T17">
+        <v>0.04858647043777331</v>
+      </c>
+    </row>
+    <row r="18" spans="1:20">
+      <c r="A18" t="s">
+        <v>23</v>
+      </c>
+      <c r="B18" t="s">
+        <v>24</v>
+      </c>
+      <c r="C18" t="s">
+        <v>25</v>
+      </c>
+      <c r="D18" t="s">
+        <v>21</v>
+      </c>
+      <c r="E18">
+        <v>2</v>
+      </c>
+      <c r="F18">
+        <v>1</v>
+      </c>
+      <c r="G18">
+        <v>3.233196</v>
+      </c>
+      <c r="H18">
+        <v>6.466392</v>
+      </c>
+      <c r="I18">
+        <v>0.4384492773551761</v>
+      </c>
+      <c r="J18">
+        <v>0.3423311304977583</v>
+      </c>
+      <c r="K18">
+        <v>3</v>
+      </c>
+      <c r="L18">
+        <v>1</v>
+      </c>
+      <c r="M18">
+        <v>8.001835333333334</v>
+      </c>
+      <c r="N18">
+        <v>24.005506</v>
+      </c>
+      <c r="O18">
+        <v>0.3423348043532233</v>
+      </c>
+      <c r="P18">
+        <v>0.3563305557453487</v>
+      </c>
+      <c r="Q18">
+        <v>25.871501992392</v>
+      </c>
+      <c r="R18">
+        <v>155.229011954352</v>
+      </c>
+      <c r="S18">
+        <v>0.1500964475821964</v>
+      </c>
+      <c r="T18">
+        <v>0.1219830419791997</v>
+      </c>
+    </row>
+    <row r="19" spans="1:20">
+      <c r="A19" t="s">
+        <v>23</v>
+      </c>
+      <c r="B19" t="s">
+        <v>24</v>
+      </c>
+      <c r="C19" t="s">
+        <v>25</v>
+      </c>
+      <c r="D19" t="s">
+        <v>26</v>
+      </c>
+      <c r="E19">
+        <v>2</v>
+      </c>
+      <c r="F19">
+        <v>1</v>
+      </c>
+      <c r="G19">
+        <v>3.233196</v>
+      </c>
+      <c r="H19">
+        <v>6.466392</v>
+      </c>
+      <c r="I19">
+        <v>0.4384492773551761</v>
+      </c>
+      <c r="J19">
+        <v>0.3423311304977583</v>
+      </c>
+      <c r="K19">
+        <v>3</v>
+      </c>
+      <c r="L19">
+        <v>1</v>
+      </c>
+      <c r="M19">
+        <v>4.084306000000001</v>
+      </c>
+      <c r="N19">
+        <v>12.252918</v>
+      </c>
+      <c r="O19">
+        <v>0.1747349248245835</v>
+      </c>
+      <c r="P19">
+        <v>0.1818786523575961</v>
+      </c>
+      <c r="Q19">
+        <v>13.205361821976</v>
+      </c>
+      <c r="R19">
+        <v>79.232170931856</v>
+      </c>
+      <c r="S19">
+        <v>0.07661240151804967</v>
+      </c>
+      <c r="T19">
+        <v>0.06226272467498464</v>
+      </c>
+    </row>
+    <row r="20" spans="1:20">
+      <c r="A20" t="s">
+        <v>23</v>
+      </c>
+      <c r="B20" t="s">
+        <v>24</v>
+      </c>
+      <c r="C20" t="s">
+        <v>25</v>
+      </c>
+      <c r="D20" t="s">
         <v>22</v>
       </c>
-      <c r="E16">
-        <v>1</v>
-      </c>
-      <c r="F16">
-        <v>1</v>
-      </c>
-      <c r="G16">
-        <v>3.22428547720887</v>
-      </c>
-      <c r="H16">
-        <v>3.22428547720887</v>
-      </c>
-      <c r="I16">
-        <v>0.4658299746754329</v>
-      </c>
-      <c r="J16">
-        <v>0.4658299746754329</v>
-      </c>
-      <c r="K16">
-        <v>1</v>
-      </c>
-      <c r="L16">
-        <v>1</v>
-      </c>
-      <c r="M16">
-        <v>2.75281331509131</v>
-      </c>
-      <c r="N16">
-        <v>2.75281331509131</v>
-      </c>
-      <c r="O16">
-        <v>0.1245001076945571</v>
-      </c>
-      <c r="P16">
-        <v>0.1245001076945571</v>
-      </c>
-      <c r="Q16">
-        <v>8.875855993316115</v>
-      </c>
-      <c r="R16">
-        <v>8.875855993316115</v>
-      </c>
-      <c r="S16">
-        <v>0.05799588201444418</v>
-      </c>
-      <c r="T16">
-        <v>0.05799588201444418</v>
+      <c r="E20">
+        <v>2</v>
+      </c>
+      <c r="F20">
+        <v>1</v>
+      </c>
+      <c r="G20">
+        <v>3.233196</v>
+      </c>
+      <c r="H20">
+        <v>6.466392</v>
+      </c>
+      <c r="I20">
+        <v>0.4384492773551761</v>
+      </c>
+      <c r="J20">
+        <v>0.3423311304977583</v>
+      </c>
+      <c r="K20">
+        <v>3</v>
+      </c>
+      <c r="L20">
+        <v>1</v>
+      </c>
+      <c r="M20">
+        <v>5.346736</v>
+      </c>
+      <c r="N20">
+        <v>16.040208</v>
+      </c>
+      <c r="O20">
+        <v>0.2287442500676723</v>
+      </c>
+      <c r="P20">
+        <v>0.2380960530851126</v>
+      </c>
+      <c r="Q20">
+        <v>17.287045448256</v>
+      </c>
+      <c r="R20">
+        <v>103.722272689536</v>
+      </c>
+      <c r="S20">
+        <v>0.1002927511413226</v>
+      </c>
+      <c r="T20">
+        <v>0.08150769101968086</v>
+      </c>
+    </row>
+    <row r="21" spans="1:20">
+      <c r="A21" t="s">
+        <v>23</v>
+      </c>
+      <c r="B21" t="s">
+        <v>24</v>
+      </c>
+      <c r="C21" t="s">
+        <v>25</v>
+      </c>
+      <c r="D21" t="s">
+        <v>23</v>
+      </c>
+      <c r="E21">
+        <v>2</v>
+      </c>
+      <c r="F21">
+        <v>1</v>
+      </c>
+      <c r="G21">
+        <v>3.233196</v>
+      </c>
+      <c r="H21">
+        <v>6.466392</v>
+      </c>
+      <c r="I21">
+        <v>0.4384492773551761</v>
+      </c>
+      <c r="J21">
+        <v>0.3423311304977583</v>
+      </c>
+      <c r="K21">
+        <v>2</v>
+      </c>
+      <c r="L21">
+        <v>1</v>
+      </c>
+      <c r="M21">
+        <v>2.7542475</v>
+      </c>
+      <c r="N21">
+        <v>5.508495</v>
+      </c>
+      <c r="O21">
+        <v>0.1178323146847462</v>
+      </c>
+      <c r="P21">
+        <v>0.08176645327411448</v>
+      </c>
+      <c r="Q21">
+        <v>8.90502200001</v>
+      </c>
+      <c r="R21">
+        <v>35.62008800004</v>
+      </c>
+      <c r="S21">
+        <v>0.05166349322261468</v>
+      </c>
+      <c r="T21">
+        <v>0.02799120238611974</v>
       </c>
     </row>
   </sheetData>
